--- a/REVER_DailyTracker_20200508.xlsx
+++ b/REVER_DailyTracker_20200508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1EA057-E105-4D70-ACB3-8DB98311D88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0AA8C-3996-4FD1-9090-83A874AC6300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -556,22 +562,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,7 +598,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -602,8 +608,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -615,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -626,41 +632,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -681,18 +687,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -715,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -724,7 +730,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -733,46 +739,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -789,22 +795,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -827,16 +833,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43958</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -845,46 +863,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -902,21 +920,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -939,16 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -957,46 +966,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1017,18 +1026,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1060,7 +1069,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1069,46 +1078,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1129,18 +1138,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1184,7 +1193,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1193,46 +1202,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1253,18 +1262,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1296,7 +1305,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1305,46 +1314,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1365,18 +1374,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1408,7 +1417,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1417,46 +1426,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1477,18 +1486,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1520,7 +1529,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1529,46 +1538,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1589,18 +1598,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1632,7 +1641,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1641,46 +1650,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200508.xlsx
+++ b/REVER_DailyTracker_20200508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0AA8C-3996-4FD1-9090-83A874AC6300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE2123-E806-4B2E-86E2-6A1511CE80F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Subnet Integration for Troubleshooting</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Changed from Uiform to macro button</t>
   </si>
 </sst>
 </file>
@@ -566,18 +572,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,7 +604,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -608,8 +614,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -621,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -632,41 +638,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -687,18 +693,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -721,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -730,7 +736,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -739,46 +745,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -795,22 +801,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -854,7 +860,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -863,46 +869,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -923,18 +929,18 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -957,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -966,46 +972,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1022,22 +1028,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1060,16 +1066,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6">
+        <v>44048</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1078,46 +1094,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1138,18 +1154,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1193,7 +1209,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1202,46 +1218,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1262,18 +1278,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1305,7 +1321,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1314,46 +1330,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1374,18 +1390,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1417,7 +1433,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1426,46 +1442,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1486,18 +1502,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1529,7 +1545,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1538,46 +1554,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1598,18 +1614,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1641,7 +1657,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1650,46 +1666,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
